--- a/Projects and Teams/Project Teams_DotnetCore.xlsx
+++ b/Projects and Teams/Project Teams_DotnetCore.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Group1</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Satyanarayana</t>
+  </si>
+  <si>
+    <t>Interview Scheduler</t>
+  </si>
+  <si>
+    <t>Resume Tracking System</t>
+  </si>
+  <si>
+    <t>Data Processor</t>
   </si>
 </sst>
 </file>
@@ -479,14 +488,14 @@
   <dimension ref="E2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -504,9 +513,15 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E5" s="3" t="s">
